--- a/excel/dosyalar/customer_mekmer.xlsx
+++ b/excel/dosyalar/customer_mekmer.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I593"/>
+  <dimension ref="A1:I595"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -3624,18 +3624,22 @@
       </c>
       <c r="F78" s="6" t="inlineStr">
         <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="G78" s="6" t="n"/>
+          <t>İç Piyasa</t>
+        </is>
+      </c>
+      <c r="G78" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="H78" s="6" t="inlineStr">
         <is>
-          <t>Fatih</t>
+          <t>İP</t>
         </is>
       </c>
       <c r="I78" s="6" t="inlineStr">
         <is>
-          <t>Fatih</t>
+          <t>İP</t>
         </is>
       </c>
     </row>
@@ -4024,7 +4028,8 @@
       </c>
       <c r="D88" s="6" t="inlineStr">
         <is>
-          <t>Via Dei Renai 11R 50125 FIRENZE,ITALY</t>
+          <t xml:space="preserve">Via Dei Renai 11R 50125 FIRENZE,ITALY
+MONTI VASCO                                                                                                          VIA DELLA PIEVE 14 - 56036 PALAIA (PISA) - FISCAL CODE: MNTVSC55M22G254S  ITALY  P:0039 3476789507 </t>
         </is>
       </c>
       <c r="E88" s="6" t="inlineStr">
@@ -4037,7 +4042,11 @@
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="G88" s="6" t="n"/>
+      <c r="G88" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="H88" s="6" t="inlineStr">
         <is>
           <t>Ozlem</t>
@@ -4611,18 +4620,22 @@
       </c>
       <c r="F102" s="6" t="inlineStr">
         <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="G102" s="6" t="n"/>
+          <t>İç Piyasa</t>
+        </is>
+      </c>
+      <c r="G102" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="H102" s="6" t="inlineStr">
         <is>
-          <t>Fatih</t>
+          <t>İP</t>
         </is>
       </c>
       <c r="I102" s="6" t="inlineStr">
         <is>
-          <t>Fatih</t>
+          <t>İP</t>
         </is>
       </c>
     </row>
@@ -8307,18 +8320,22 @@
       </c>
       <c r="F191" s="6" t="inlineStr">
         <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="G191" s="6" t="n"/>
+          <t>İç Piyasa</t>
+        </is>
+      </c>
+      <c r="G191" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="H191" s="6" t="inlineStr">
         <is>
-          <t>Fatih</t>
+          <t>İP</t>
         </is>
       </c>
       <c r="I191" s="6" t="inlineStr">
         <is>
-          <t>Fatih</t>
+          <t>İP</t>
         </is>
       </c>
     </row>
@@ -8916,7 +8933,11 @@
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="G206" s="6" t="n"/>
+      <c r="G206" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="H206" s="6" t="inlineStr">
         <is>
           <t>Ozlem</t>
@@ -8998,7 +9019,11 @@
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="G208" s="6" t="n"/>
+      <c r="G208" s="6" t="inlineStr">
+        <is>
+          <t>thetilingstore@gmail.com</t>
+        </is>
+      </c>
       <c r="H208" s="6" t="inlineStr">
         <is>
           <t>Ozlem</t>
@@ -13416,7 +13441,11 @@
           <t>Erb Mermer</t>
         </is>
       </c>
-      <c r="D316" s="6" t="n"/>
+      <c r="D316" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="E316" s="6" t="inlineStr">
         <is>
           <t>Turkey</t>
@@ -13424,10 +13453,14 @@
       </c>
       <c r="F316" s="6" t="inlineStr">
         <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="G316" s="6" t="n"/>
+          <t>İç Piyasa</t>
+        </is>
+      </c>
+      <c r="G316" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="H316" s="6" t="inlineStr">
         <is>
           <t>Mehmet</t>
@@ -15719,7 +15752,11 @@
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="G372" s="6" t="n"/>
+      <c r="G372" s="6" t="inlineStr">
+        <is>
+          <t>lissa@silverislandyoga.com</t>
+        </is>
+      </c>
       <c r="H372" s="6" t="inlineStr">
         <is>
           <t>Gizem</t>
@@ -23125,7 +23162,7 @@
       </c>
       <c r="F550" s="6" t="inlineStr">
         <is>
-          <t>Mekmar</t>
+          <t>İç Piyasa</t>
         </is>
       </c>
       <c r="G550" s="6" t="inlineStr">
@@ -23150,7 +23187,7 @@
       </c>
       <c r="B551" s="6" t="inlineStr">
         <is>
-          <t>Mustek Engineering - Ghana</t>
+          <t>Michael, Mustek Eng - Ghana</t>
         </is>
       </c>
       <c r="C551" s="6" t="inlineStr">
@@ -23160,7 +23197,9 @@
       </c>
       <c r="D551" s="6" t="inlineStr">
         <is>
-          <t>28 Church Crescent
+          <t>Michael Zormelo
++233 24 380 2228
+28 Church Crescent
 Accra Ghana</t>
         </is>
       </c>
@@ -24172,7 +24211,7 @@
       </c>
       <c r="F573" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>İç Piyasa</t>
         </is>
       </c>
       <c r="G573" s="6" t="inlineStr"/>
@@ -24257,7 +24296,7 @@
       </c>
       <c r="F575" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>İç Piyasa</t>
         </is>
       </c>
       <c r="G575" s="6" t="inlineStr"/>
@@ -24957,7 +24996,7 @@
       </c>
       <c r="F591" s="6" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>İç Piyasa</t>
         </is>
       </c>
       <c r="G591" s="6" t="inlineStr"/>
@@ -25060,6 +25099,92 @@
       <c r="I593" s="6" t="inlineStr">
         <is>
           <t>Ozlem</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="6" t="n">
+        <v>7705</v>
+      </c>
+      <c r="B594" s="6" t="inlineStr">
+        <is>
+          <t>Brenda Pollak - USA</t>
+        </is>
+      </c>
+      <c r="C594" s="6" t="inlineStr"/>
+      <c r="D594" s="6" t="inlineStr">
+        <is>
+          <t>6730 Epping Forest Way North, #107, Jacksonville, FL 32217, US</t>
+        </is>
+      </c>
+      <c r="E594" s="6" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F594" s="6" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="G594" s="6" t="inlineStr">
+        <is>
+          <t>Lbpbbp@comcast.net</t>
+        </is>
+      </c>
+      <c r="H594" s="6" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="I594" s="6" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="6" t="n">
+        <v>7706</v>
+      </c>
+      <c r="B595" s="6" t="inlineStr">
+        <is>
+          <t>Cengiz - Turkey</t>
+        </is>
+      </c>
+      <c r="C595" s="6" t="inlineStr">
+        <is>
+          <t>Alimoğlu Cengiz</t>
+        </is>
+      </c>
+      <c r="D595" s="6" t="inlineStr">
+        <is>
+          <t>Cengiz</t>
+        </is>
+      </c>
+      <c r="E595" s="6" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="F595" s="6" t="inlineStr">
+        <is>
+          <t>İç Piyasa</t>
+        </is>
+      </c>
+      <c r="G595" s="6" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="H595" s="6" t="inlineStr">
+        <is>
+          <t>Sergen</t>
+        </is>
+      </c>
+      <c r="I595" s="6" t="inlineStr">
+        <is>
+          <t>Sergen</t>
         </is>
       </c>
     </row>
